--- a/設計書/02_基本設計（外部設計）/データベース設計/CRUD図.xlsx
+++ b/設計書/02_基本設計（外部設計）/データベース設計/CRUD図.xlsx
@@ -7,17 +7,22 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="CRUD図" sheetId="1" r:id="rId1"/>
+    <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
+    <sheet name="CRUD図" sheetId="1" r:id="rId2"/>
+    <sheet name="設定情報" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CRUD図!$A$1:$W$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">CRUD図!$A$1:$W$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$AZ$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">設定情報!$A$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
   <si>
     <t>【CRUD図】</t>
     <phoneticPr fontId="3"/>
@@ -68,16 +73,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>物理名</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>論理名</t>
     <rPh sb="0" eb="2">
       <t>ロンリ</t>
@@ -172,9 +167,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コードマスタ</t>
-  </si>
-  <si>
     <t>役割マスタ</t>
   </si>
   <si>
@@ -258,12 +250,178 @@
     <t>←</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>コードマスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+  </si>
+  <si>
+    <t>作成日</t>
+  </si>
+  <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <t>承認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ページ</t>
+  </si>
+  <si>
+    <t>サブシステム</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>版数管理</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>版数</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>改訂者</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>改定内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FS壁谷</t>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タニ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>月報管理システム</t>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブシステム名</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CRUD図</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FS壁谷</t>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;第&quot;0.0&quot;版&quot;\ "/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,13 +487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -353,8 +504,36 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +552,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -753,11 +950,386 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -787,15 +1359,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -828,22 +1391,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -854,11 +1405,11 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -890,7 +1441,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -905,7 +1456,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,9 +1479,287 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="14">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="4"/>
+    <cellStyle name="標準 2" xfId="3"/>
+    <cellStyle name="標準 2 2" xfId="5"/>
+    <cellStyle name="標準 2 2 2" xfId="6"/>
+    <cellStyle name="標準 2 3" xfId="7"/>
+    <cellStyle name="標準 3" xfId="8"/>
+    <cellStyle name="標準 4" xfId="9"/>
+    <cellStyle name="標準 5" xfId="1"/>
+    <cellStyle name="標準 6" xfId="10"/>
+    <cellStyle name="標準 7" xfId="11"/>
+    <cellStyle name="標準 8" xfId="12"/>
+    <cellStyle name="標準 9" xfId="13"/>
+    <cellStyle name="標準_ｻﾝﾌﾟﾙ（画面）_共通命名規約" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1230,29 +2059,1724 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AZ28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.5" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>改訂履歴</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="65" t="str">
+        <f>設定情報!$C$2</f>
+        <v>月報管理システム</v>
+      </c>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="66"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71" t="str">
+        <f>設定情報!$C$3</f>
+        <v>月報管理システム</v>
+      </c>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="72">
+        <v>42612</v>
+      </c>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="75"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78" t="str">
+        <f>設定情報!$C$4</f>
+        <v>-</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="78" t="str">
+        <f>設定情報!$C$5</f>
+        <v>CRUD図</v>
+      </c>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="81"/>
+    </row>
+    <row r="4" spans="1:52" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="87"/>
+    </row>
+    <row r="5" spans="1:52" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="91"/>
+    </row>
+    <row r="6" spans="1:52" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="91"/>
+    </row>
+    <row r="7" spans="1:52" s="88" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="89"/>
+      <c r="B7" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="91"/>
+    </row>
+    <row r="8" spans="1:52" s="88" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="89"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="106"/>
+      <c r="AZ8" s="108"/>
+    </row>
+    <row r="9" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="89"/>
+      <c r="B9" s="109">
+        <v>1</v>
+      </c>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112">
+        <v>42604</v>
+      </c>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="116"/>
+      <c r="AM9" s="116"/>
+      <c r="AN9" s="116"/>
+      <c r="AO9" s="116"/>
+      <c r="AP9" s="116"/>
+      <c r="AQ9" s="116"/>
+      <c r="AR9" s="116"/>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="116"/>
+      <c r="AW9" s="116"/>
+      <c r="AX9" s="116"/>
+      <c r="AY9" s="117"/>
+      <c r="AZ9" s="108"/>
+    </row>
+    <row r="10" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="89"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="116"/>
+      <c r="AS10" s="116"/>
+      <c r="AT10" s="116"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="116"/>
+      <c r="AW10" s="116"/>
+      <c r="AX10" s="116"/>
+      <c r="AY10" s="117"/>
+      <c r="AZ10" s="108"/>
+    </row>
+    <row r="11" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="89"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="116"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="116"/>
+      <c r="AQ11" s="116"/>
+      <c r="AR11" s="116"/>
+      <c r="AS11" s="116"/>
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="116"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="116"/>
+      <c r="AX11" s="116"/>
+      <c r="AY11" s="117"/>
+      <c r="AZ11" s="108"/>
+    </row>
+    <row r="12" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="89"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="116"/>
+      <c r="AB12" s="116"/>
+      <c r="AC12" s="116"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="116"/>
+      <c r="AF12" s="116"/>
+      <c r="AG12" s="116"/>
+      <c r="AH12" s="116"/>
+      <c r="AI12" s="116"/>
+      <c r="AJ12" s="116"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="116"/>
+      <c r="AM12" s="116"/>
+      <c r="AN12" s="116"/>
+      <c r="AO12" s="116"/>
+      <c r="AP12" s="116"/>
+      <c r="AQ12" s="116"/>
+      <c r="AR12" s="116"/>
+      <c r="AS12" s="116"/>
+      <c r="AT12" s="116"/>
+      <c r="AU12" s="116"/>
+      <c r="AV12" s="116"/>
+      <c r="AW12" s="116"/>
+      <c r="AX12" s="116"/>
+      <c r="AY12" s="117"/>
+      <c r="AZ12" s="108"/>
+    </row>
+    <row r="13" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="89"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="116"/>
+      <c r="AJ13" s="116"/>
+      <c r="AK13" s="116"/>
+      <c r="AL13" s="116"/>
+      <c r="AM13" s="116"/>
+      <c r="AN13" s="116"/>
+      <c r="AO13" s="116"/>
+      <c r="AP13" s="116"/>
+      <c r="AQ13" s="116"/>
+      <c r="AR13" s="116"/>
+      <c r="AS13" s="116"/>
+      <c r="AT13" s="116"/>
+      <c r="AU13" s="116"/>
+      <c r="AV13" s="116"/>
+      <c r="AW13" s="116"/>
+      <c r="AX13" s="116"/>
+      <c r="AY13" s="117"/>
+      <c r="AZ13" s="108"/>
+    </row>
+    <row r="14" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="89"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="116"/>
+      <c r="AJ14" s="116"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="116"/>
+      <c r="AM14" s="116"/>
+      <c r="AN14" s="116"/>
+      <c r="AO14" s="116"/>
+      <c r="AP14" s="116"/>
+      <c r="AQ14" s="116"/>
+      <c r="AR14" s="116"/>
+      <c r="AS14" s="116"/>
+      <c r="AT14" s="116"/>
+      <c r="AU14" s="116"/>
+      <c r="AV14" s="116"/>
+      <c r="AW14" s="116"/>
+      <c r="AX14" s="116"/>
+      <c r="AY14" s="117"/>
+      <c r="AZ14" s="108"/>
+    </row>
+    <row r="15" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="89"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="116"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="116"/>
+      <c r="AJ15" s="116"/>
+      <c r="AK15" s="116"/>
+      <c r="AL15" s="116"/>
+      <c r="AM15" s="116"/>
+      <c r="AN15" s="116"/>
+      <c r="AO15" s="116"/>
+      <c r="AP15" s="116"/>
+      <c r="AQ15" s="116"/>
+      <c r="AR15" s="116"/>
+      <c r="AS15" s="116"/>
+      <c r="AT15" s="116"/>
+      <c r="AU15" s="116"/>
+      <c r="AV15" s="116"/>
+      <c r="AW15" s="116"/>
+      <c r="AX15" s="116"/>
+      <c r="AY15" s="117"/>
+      <c r="AZ15" s="108"/>
+    </row>
+    <row r="16" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="89"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="116"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="116"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="116"/>
+      <c r="AO16" s="116"/>
+      <c r="AP16" s="116"/>
+      <c r="AQ16" s="116"/>
+      <c r="AR16" s="116"/>
+      <c r="AS16" s="116"/>
+      <c r="AT16" s="116"/>
+      <c r="AU16" s="116"/>
+      <c r="AV16" s="116"/>
+      <c r="AW16" s="116"/>
+      <c r="AX16" s="116"/>
+      <c r="AY16" s="117"/>
+      <c r="AZ16" s="108"/>
+    </row>
+    <row r="17" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="89"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="116"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="116"/>
+      <c r="AJ17" s="116"/>
+      <c r="AK17" s="116"/>
+      <c r="AL17" s="116"/>
+      <c r="AM17" s="116"/>
+      <c r="AN17" s="116"/>
+      <c r="AO17" s="116"/>
+      <c r="AP17" s="116"/>
+      <c r="AQ17" s="116"/>
+      <c r="AR17" s="116"/>
+      <c r="AS17" s="116"/>
+      <c r="AT17" s="116"/>
+      <c r="AU17" s="116"/>
+      <c r="AV17" s="116"/>
+      <c r="AW17" s="116"/>
+      <c r="AX17" s="116"/>
+      <c r="AY17" s="117"/>
+      <c r="AZ17" s="108"/>
+    </row>
+    <row r="18" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="89"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="116"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="116"/>
+      <c r="AJ18" s="116"/>
+      <c r="AK18" s="116"/>
+      <c r="AL18" s="116"/>
+      <c r="AM18" s="116"/>
+      <c r="AN18" s="116"/>
+      <c r="AO18" s="116"/>
+      <c r="AP18" s="116"/>
+      <c r="AQ18" s="116"/>
+      <c r="AR18" s="116"/>
+      <c r="AS18" s="116"/>
+      <c r="AT18" s="116"/>
+      <c r="AU18" s="116"/>
+      <c r="AV18" s="116"/>
+      <c r="AW18" s="116"/>
+      <c r="AX18" s="116"/>
+      <c r="AY18" s="117"/>
+      <c r="AZ18" s="108"/>
+    </row>
+    <row r="19" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="89"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="116"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="116"/>
+      <c r="AE19" s="116"/>
+      <c r="AF19" s="116"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="116"/>
+      <c r="AJ19" s="116"/>
+      <c r="AK19" s="116"/>
+      <c r="AL19" s="116"/>
+      <c r="AM19" s="116"/>
+      <c r="AN19" s="116"/>
+      <c r="AO19" s="116"/>
+      <c r="AP19" s="116"/>
+      <c r="AQ19" s="116"/>
+      <c r="AR19" s="116"/>
+      <c r="AS19" s="116"/>
+      <c r="AT19" s="116"/>
+      <c r="AU19" s="116"/>
+      <c r="AV19" s="116"/>
+      <c r="AW19" s="116"/>
+      <c r="AX19" s="116"/>
+      <c r="AY19" s="117"/>
+      <c r="AZ19" s="108"/>
+    </row>
+    <row r="20" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="89"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="116"/>
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="116"/>
+      <c r="AI20" s="116"/>
+      <c r="AJ20" s="116"/>
+      <c r="AK20" s="116"/>
+      <c r="AL20" s="116"/>
+      <c r="AM20" s="116"/>
+      <c r="AN20" s="116"/>
+      <c r="AO20" s="116"/>
+      <c r="AP20" s="116"/>
+      <c r="AQ20" s="116"/>
+      <c r="AR20" s="116"/>
+      <c r="AS20" s="116"/>
+      <c r="AT20" s="116"/>
+      <c r="AU20" s="116"/>
+      <c r="AV20" s="116"/>
+      <c r="AW20" s="116"/>
+      <c r="AX20" s="116"/>
+      <c r="AY20" s="117"/>
+      <c r="AZ20" s="108"/>
+    </row>
+    <row r="21" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="89"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="116"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="116"/>
+      <c r="AE21" s="116"/>
+      <c r="AF21" s="116"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="116"/>
+      <c r="AI21" s="116"/>
+      <c r="AJ21" s="116"/>
+      <c r="AK21" s="116"/>
+      <c r="AL21" s="116"/>
+      <c r="AM21" s="116"/>
+      <c r="AN21" s="116"/>
+      <c r="AO21" s="116"/>
+      <c r="AP21" s="116"/>
+      <c r="AQ21" s="116"/>
+      <c r="AR21" s="116"/>
+      <c r="AS21" s="116"/>
+      <c r="AT21" s="116"/>
+      <c r="AU21" s="116"/>
+      <c r="AV21" s="116"/>
+      <c r="AW21" s="116"/>
+      <c r="AX21" s="116"/>
+      <c r="AY21" s="117"/>
+      <c r="AZ21" s="108"/>
+    </row>
+    <row r="22" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="89"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="116"/>
+      <c r="AC22" s="116"/>
+      <c r="AD22" s="116"/>
+      <c r="AE22" s="116"/>
+      <c r="AF22" s="116"/>
+      <c r="AG22" s="116"/>
+      <c r="AH22" s="116"/>
+      <c r="AI22" s="116"/>
+      <c r="AJ22" s="116"/>
+      <c r="AK22" s="116"/>
+      <c r="AL22" s="116"/>
+      <c r="AM22" s="116"/>
+      <c r="AN22" s="116"/>
+      <c r="AO22" s="116"/>
+      <c r="AP22" s="116"/>
+      <c r="AQ22" s="116"/>
+      <c r="AR22" s="116"/>
+      <c r="AS22" s="116"/>
+      <c r="AT22" s="116"/>
+      <c r="AU22" s="116"/>
+      <c r="AV22" s="116"/>
+      <c r="AW22" s="116"/>
+      <c r="AX22" s="116"/>
+      <c r="AY22" s="117"/>
+      <c r="AZ22" s="108"/>
+    </row>
+    <row r="23" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="89"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="116"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="116"/>
+      <c r="AF23" s="116"/>
+      <c r="AG23" s="116"/>
+      <c r="AH23" s="116"/>
+      <c r="AI23" s="116"/>
+      <c r="AJ23" s="116"/>
+      <c r="AK23" s="116"/>
+      <c r="AL23" s="116"/>
+      <c r="AM23" s="116"/>
+      <c r="AN23" s="116"/>
+      <c r="AO23" s="116"/>
+      <c r="AP23" s="116"/>
+      <c r="AQ23" s="116"/>
+      <c r="AR23" s="116"/>
+      <c r="AS23" s="116"/>
+      <c r="AT23" s="116"/>
+      <c r="AU23" s="116"/>
+      <c r="AV23" s="116"/>
+      <c r="AW23" s="116"/>
+      <c r="AX23" s="116"/>
+      <c r="AY23" s="117"/>
+      <c r="AZ23" s="108"/>
+    </row>
+    <row r="24" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="89"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="116"/>
+      <c r="AJ24" s="116"/>
+      <c r="AK24" s="116"/>
+      <c r="AL24" s="116"/>
+      <c r="AM24" s="116"/>
+      <c r="AN24" s="116"/>
+      <c r="AO24" s="116"/>
+      <c r="AP24" s="116"/>
+      <c r="AQ24" s="116"/>
+      <c r="AR24" s="116"/>
+      <c r="AS24" s="116"/>
+      <c r="AT24" s="116"/>
+      <c r="AU24" s="116"/>
+      <c r="AV24" s="116"/>
+      <c r="AW24" s="116"/>
+      <c r="AX24" s="116"/>
+      <c r="AY24" s="117"/>
+      <c r="AZ24" s="108"/>
+    </row>
+    <row r="25" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="89"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="116"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="116"/>
+      <c r="AE25" s="116"/>
+      <c r="AF25" s="116"/>
+      <c r="AG25" s="116"/>
+      <c r="AH25" s="116"/>
+      <c r="AI25" s="116"/>
+      <c r="AJ25" s="116"/>
+      <c r="AK25" s="116"/>
+      <c r="AL25" s="116"/>
+      <c r="AM25" s="116"/>
+      <c r="AN25" s="116"/>
+      <c r="AO25" s="116"/>
+      <c r="AP25" s="116"/>
+      <c r="AQ25" s="116"/>
+      <c r="AR25" s="116"/>
+      <c r="AS25" s="116"/>
+      <c r="AT25" s="116"/>
+      <c r="AU25" s="116"/>
+      <c r="AV25" s="116"/>
+      <c r="AW25" s="116"/>
+      <c r="AX25" s="116"/>
+      <c r="AY25" s="117"/>
+      <c r="AZ25" s="108"/>
+    </row>
+    <row r="26" spans="1:52" s="88" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="89"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="132"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="132"/>
+      <c r="AJ26" s="132"/>
+      <c r="AK26" s="132"/>
+      <c r="AL26" s="132"/>
+      <c r="AM26" s="132"/>
+      <c r="AN26" s="132"/>
+      <c r="AO26" s="132"/>
+      <c r="AP26" s="132"/>
+      <c r="AQ26" s="132"/>
+      <c r="AR26" s="132"/>
+      <c r="AS26" s="132"/>
+      <c r="AT26" s="132"/>
+      <c r="AU26" s="132"/>
+      <c r="AV26" s="132"/>
+      <c r="AW26" s="132"/>
+      <c r="AX26" s="132"/>
+      <c r="AY26" s="133"/>
+      <c r="AZ26" s="134"/>
+    </row>
+    <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="136"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="136"/>
+      <c r="X27" s="136"/>
+      <c r="Y27" s="136"/>
+      <c r="Z27" s="136"/>
+      <c r="AA27" s="136"/>
+      <c r="AB27" s="136"/>
+      <c r="AC27" s="136"/>
+      <c r="AD27" s="136"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="136"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="136"/>
+      <c r="AJ27" s="136"/>
+      <c r="AK27" s="136"/>
+      <c r="AL27" s="136"/>
+      <c r="AM27" s="136"/>
+      <c r="AN27" s="136"/>
+      <c r="AO27" s="136"/>
+      <c r="AP27" s="136"/>
+      <c r="AQ27" s="136"/>
+      <c r="AR27" s="136"/>
+      <c r="AS27" s="136"/>
+      <c r="AT27" s="136"/>
+      <c r="AU27" s="136"/>
+      <c r="AV27" s="136"/>
+      <c r="AW27" s="136"/>
+      <c r="AX27" s="136"/>
+      <c r="AY27" s="136"/>
+      <c r="AZ27" s="137"/>
+    </row>
+    <row r="28" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="138"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="139"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="139"/>
+      <c r="AM28" s="139"/>
+      <c r="AN28" s="139"/>
+      <c r="AO28" s="139"/>
+      <c r="AP28" s="139"/>
+      <c r="AQ28" s="139"/>
+      <c r="AR28" s="139"/>
+      <c r="AS28" s="139"/>
+      <c r="AT28" s="139"/>
+      <c r="AU28" s="139"/>
+      <c r="AV28" s="139"/>
+      <c r="AW28" s="139"/>
+      <c r="AX28" s="139"/>
+      <c r="AY28" s="139"/>
+      <c r="AZ28" s="140"/>
+    </row>
+  </sheetData>
+  <mergeCells count="97">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:AY26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:AY24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:AY25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AS1:AW1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
+    <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.625" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="21.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.375" style="21" customWidth="1"/>
-    <col min="7" max="20" width="5.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.375" style="18" customWidth="1"/>
+    <col min="7" max="20" width="4.625" style="7" customWidth="1"/>
     <col min="21" max="21" width="5.625" style="7" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="5.625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4.875" style="7" customWidth="1"/>
     <col min="23" max="104" width="2.25" style="4" customWidth="1"/>
     <col min="105" max="125" width="5.625" style="4" customWidth="1"/>
     <col min="126" max="16384" width="9" style="4"/>
@@ -1283,125 +3807,128 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="X1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="46" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="147" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="102.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="128.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="12" t="s">
+      <c r="G4" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="102.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
@@ -1415,7 +3942,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>4</v>
@@ -1437,778 +3964,778 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="X5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="36" t="s">
-        <v>59</v>
+      <c r="C6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="36" t="s">
-        <v>58</v>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
+      <c r="A8" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="36" t="s">
-        <v>58</v>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
+      <c r="A9" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="36" t="s">
-        <v>58</v>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
+      <c r="A10" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="36" t="s">
-        <v>58</v>
+      <c r="C10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+      <c r="A11" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="36" t="s">
-        <v>58</v>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="A12" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36" t="s">
-        <v>58</v>
+      <c r="C12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="A13" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="36" t="s">
-        <v>58</v>
+      <c r="C13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+      <c r="A14" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36" t="s">
-        <v>58</v>
+      <c r="C14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
+      <c r="A15" s="14">
         <f>MAX(A$1:INDEX(A:A,ROW()-1,0))+1</f>
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="C15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36" t="s">
-        <v>58</v>
-      </c>
       <c r="X15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36" t="s">
-        <v>58</v>
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="36" t="s">
-        <v>58</v>
+      <c r="A17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X17" s="7"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="36" t="s">
-        <v>58</v>
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="36" t="s">
-        <v>58</v>
+      <c r="A19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="36" t="s">
-        <v>58</v>
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="36" t="s">
-        <v>58</v>
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X21" s="7"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="36" t="s">
-        <v>58</v>
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="36" t="s">
-        <v>58</v>
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="36" t="s">
-        <v>58</v>
+      <c r="A24" s="14"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="36" t="s">
-        <v>58</v>
+      <c r="A25" s="14"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="X25" s="7"/>
     </row>
     <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="36"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="29"/>
       <c r="X26" s="7"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="H27" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="I27" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="S27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="T27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="U27" s="38"/>
-      <c r="V27" s="39" t="s">
-        <v>57</v>
+      <c r="J27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="31"/>
+      <c r="V27" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
@@ -2234,80 +4761,143 @@
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
       <c r="X28" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.25" style="143" customWidth="1"/>
+    <col min="2" max="2" width="14" style="143" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="143" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="143"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="141" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="142" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
+    <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>